--- a/ppt_excel_sheets.xlsx
+++ b/ppt_excel_sheets.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D29" sqref="A14:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
